--- a/files/product-new.xlsx
+++ b/files/product-new.xlsx
@@ -44,9 +44,6 @@
     <t>discount</t>
   </si>
   <si>
-    <t>price_aftert_discount</t>
-  </si>
-  <si>
     <t>stock</t>
   </si>
   <si>
@@ -102,6 +99,9 @@
   </si>
   <si>
     <t>Brand En ex(LG)</t>
+  </si>
+  <si>
+    <t>price_after_discount</t>
   </si>
 </sst>
 </file>
@@ -499,7 +499,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,10 +521,10 @@
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -545,45 +545,45 @@
         <v>5</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="M1" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
       <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
       </c>
       <c r="G2">
         <v>1000</v>
@@ -598,19 +598,19 @@
         <v>40</v>
       </c>
       <c r="K2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" t="s">
         <v>14</v>
       </c>
-      <c r="L2" t="s">
-        <v>15</v>
-      </c>
       <c r="M2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" t="s">
         <v>24</v>
-      </c>
-      <c r="O2" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
